--- a/DDT.xlsx
+++ b/DDT.xlsx
@@ -1,48 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nchaurasia\Automation-Architect\connect2tech.in-SeleniumWebDriver3.x_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34B68A7D-6DF3-4C78-9908-7A8A72512E6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>A</t>
+    <t>Hello</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Hai</t>
   </si>
   <si>
-    <t>C</t>
+    <t>fine</t>
   </si>
   <si>
-    <t>D</t>
+    <t>Java</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>Selenium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,27 +400,51 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B1524-B111-44B3-8F46-BE84E9B82009}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D95B702-8973-4F0E-A409-88A4C1703A53}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DDT.xlsx
+++ b/DDT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nchaurasia\Automation-Architect\connect2tech.in-SeleniumWebDriver3.x_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34B68A7D-6DF3-4C78-9908-7A8A72512E6D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64166FCA-1275-459F-954F-3DB7199E3B12}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hello</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Selenium</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Pwd</t>
   </si>
 </sst>
 </file>
@@ -388,35 +394,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
